--- a/meta/1-3-1.xlsx
+++ b/meta/1-3-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Метаданные для заполнения на 1 ноября\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFCF1E3-D94C-484B-8872-1D0EA881497E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="3" r:id="rId1"/>
@@ -175,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,10 +388,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Гиперссылка 2" xfId="3"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,29 +668,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="48.83984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="61.15625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -697,7 +698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -705,7 +706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -713,13 +714,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -727,7 +728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -735,7 +736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -743,7 +744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -751,7 +752,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -759,13 +760,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="99.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -773,7 +774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="126" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -781,7 +782,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="298.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="298.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -789,13 +790,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="15"/>
     </row>
-    <row r="16" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -803,19 +804,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="61.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -823,7 +824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="123.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -831,19 +832,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -851,7 +852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -859,35 +860,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="12"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="26" spans="1:2" ht="367.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" ht="393.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="10"/>
-      <c r="K65" s="5"/>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="10"/>
+      <c r="K63" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/meta/1-3-1.xlsx
+++ b/meta/1-3-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>rakhmanovazz@mail.ru</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Этот показатель отражает долю населения, охваченную системами социальной защиты.                                                                                       Численность получателей государственных социальных пособий — число лиц на конец (начало) отчетного года, которым назначена ежемесячная денежная сумма на условиях, предусмотренных законом Кыргызской Республики «О государственных пособиях в Кыргызской Республике». Общая численность получателей государственных социальных пособий подсчитывается по числу лицевых счетов получателей, состоящих на учете в органах социальной защиты.</t>
   </si>
   <si>
@@ -172,17 +169,28 @@
 P12100_LANG_CODE:3065524,en
 </t>
   </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,26 +257,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -579,7 +591,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,8 +673,8 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -684,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -692,7 +704,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -706,7 +718,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -714,7 +726,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -728,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -736,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -744,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +770,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -766,7 +778,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,7 +786,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
